--- a/doc/ue_android.xlsx
+++ b/doc/ue_android.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F06E0FC-EA78-48FF-85FA-B5C88CE3C74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A956271-BD71-4B7D-A076-7F8CFC800C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>搞清楚UE的Java层和C++怎么关联的</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,6 +355,10 @@
   </si>
   <si>
     <t>回调到UE里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Native的基类里面，新建线程，调度android_main</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,6 +454,120 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E3EB205-2409-B6DB-F902-C57EF9FC81D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10287000" y="1266825"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22A27A21-50BA-4DEB-3918-EACC19CAD16B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7858125" y="504825"/>
+          <a:ext cx="7296150" cy="3648075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -718,7 +836,7 @@
   <dimension ref="B4:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -799,55 +917,59 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF312C3F-B124-4EAD-A56B-B9D0391B0F7F}">
-  <dimension ref="B3:E26"/>
+  <dimension ref="B3:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="Q12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D15" s="2" t="s">
         <v>20</v>
       </c>

--- a/doc/ue_android.xlsx
+++ b/doc/ue_android.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A956271-BD71-4B7D-A076-7F8CFC800C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C763EA-CCDE-46C1-9895-33170A3CC5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
     <sheet name="android_main" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>搞清楚UE的Java层和C++怎么关联的</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -359,6 +360,13 @@
   </si>
   <si>
     <t>在Native的基类里面，新建线程，调度android_main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android:exported="true"</t>
+  </si>
+  <si>
+    <t>对SplashActivity增加下面标签，可以通过ADB启动游戏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -366,7 +374,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,6 +420,21 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FF404040"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -433,12 +456,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -925,7 +952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF312C3F-B124-4EAD-A56B-B9D0391B0F7F}">
   <dimension ref="B3:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
@@ -1013,4 +1040,31 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259A8080-8343-49F2-9F0E-73E7E8F13158}">
+  <dimension ref="B5:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>